--- a/data/labeled_claims/internet_users_percent_population_claims.xlsx
+++ b/data/labeled_claims/internet_users_percent_population_claims.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26915"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27217"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="104">
   <si>
     <t>Albania compared to other CountriesThe Internet users of Albania is similar to that of Poland , Portugal , Russia , Macedonia , Saudi Arabia , Argentina , Greece , Dominica , Azerbaijan , Italy with a respective Internet users of 62.8 , 62.1 , 61.4 , 61.2 , 60.5 , 59.9 , 59.9 , 59.0 , 58.7 , 58.5 -LRB- per 100 people -RRB- and a global rank of 62 , 63 , 64 , 65 , 66 , 68 , 69 , 70 , 71 , 72.10 years growthAlbania 's Internet users had a positive growth of 5,910 -LRB- % -RRB- in the last 10 years from -LRB- 2003 to 2013 -RRB- .</t>
   </si>
@@ -336,6 +336,9 @@
   </si>
   <si>
     <t>extracted_value</t>
+  </si>
+  <si>
+    <t>sentence</t>
   </si>
 </sst>
 </file>
@@ -732,7 +735,7 @@
   <dimension ref="A1:K96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -745,6 +748,9 @@
       <c r="A1" t="s">
         <v>98</v>
       </c>
+      <c r="B1" t="s">
+        <v>103</v>
+      </c>
       <c r="C1" t="s">
         <v>99</v>
       </c>

--- a/data/labeled_claims/internet_users_percent_population_claims.xlsx
+++ b/data/labeled_claims/internet_users_percent_population_claims.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="659" uniqueCount="105">
   <si>
     <t>Albania compared to other CountriesThe Internet users of Albania is similar to that of Poland , Portugal , Russia , Macedonia , Saudi Arabia , Argentina , Greece , Dominica , Azerbaijan , Italy with a respective Internet users of 62.8 , 62.1 , 61.4 , 61.2 , 60.5 , 59.9 , 59.9 , 59.0 , 58.7 , 58.5 -LRB- per 100 people -RRB- and a global rank of 62 , 63 , 64 , 65 , 66 , 68 , 69 , 70 , 71 , 72.10 years growthAlbania 's Internet users had a positive growth of 5,910 -LRB- % -RRB- in the last 10 years from -LRB- 2003 to 2013 -RRB- .</t>
   </si>
@@ -339,6 +339,9 @@
   </si>
   <si>
     <t>sentence</t>
+  </si>
+  <si>
+    <t>dep</t>
   </si>
 </sst>
 </file>
@@ -735,7 +738,7 @@
   <dimension ref="A1:K96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -760,6 +763,9 @@
       <c r="F1" t="s">
         <v>101</v>
       </c>
+      <c r="H1" t="s">
+        <v>104</v>
+      </c>
       <c r="I1" t="s">
         <v>102</v>
       </c>
